--- a/natmiOut/OldD7/LR-pairs_lrc2p/Jag1-Notch2.xlsx
+++ b/natmiOut/OldD7/LR-pairs_lrc2p/Jag1-Notch2.xlsx
@@ -531,52 +531,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>15.4833968167048</v>
+        <v>16.12468433333333</v>
       </c>
       <c r="H2">
-        <v>15.4833968167048</v>
+        <v>48.374053</v>
       </c>
       <c r="I2">
-        <v>0.3702708826726077</v>
+        <v>0.2955490655206278</v>
       </c>
       <c r="J2">
-        <v>0.3702708826726077</v>
+        <v>0.2955490655206279</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>2.68601823730102</v>
+        <v>2.993142333333334</v>
       </c>
       <c r="N2">
-        <v>2.68601823730102</v>
+        <v>8.979427000000001</v>
       </c>
       <c r="O2">
-        <v>0.03317837855250831</v>
+        <v>0.03484385887642424</v>
       </c>
       <c r="P2">
-        <v>0.03317837855250831</v>
+        <v>0.03484385887642424</v>
       </c>
       <c r="Q2">
-        <v>41.58868622503766</v>
+        <v>48.26347528973677</v>
       </c>
       <c r="R2">
-        <v>41.58868622503766</v>
+        <v>434.371277607631</v>
       </c>
       <c r="S2">
-        <v>0.01228498751228317</v>
+        <v>0.01029806993005982</v>
       </c>
       <c r="T2">
-        <v>0.01228498751228317</v>
+        <v>0.01029806993005982</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -593,52 +593,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>15.4833968167048</v>
+        <v>16.12468433333333</v>
       </c>
       <c r="H3">
-        <v>15.4833968167048</v>
+        <v>48.374053</v>
       </c>
       <c r="I3">
-        <v>0.3702708826726077</v>
+        <v>0.2955490655206278</v>
       </c>
       <c r="J3">
-        <v>0.3702708826726077</v>
+        <v>0.2955490655206279</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>31.9841461804462</v>
+        <v>31.995262</v>
       </c>
       <c r="N3">
-        <v>31.9841461804462</v>
+        <v>95.985786</v>
       </c>
       <c r="O3">
-        <v>0.3950762861237717</v>
+        <v>0.3724642097459734</v>
       </c>
       <c r="P3">
-        <v>0.3950762861237717</v>
+        <v>0.3724642097459735</v>
       </c>
       <c r="Q3">
-        <v>495.2232271553417</v>
+        <v>515.9134999122953</v>
       </c>
       <c r="R3">
-        <v>495.2232271553417</v>
+        <v>4643.221499210658</v>
       </c>
       <c r="S3">
-        <v>0.1462852451860647</v>
+        <v>0.1100814491303016</v>
       </c>
       <c r="T3">
-        <v>0.1462852451860647</v>
+        <v>0.1100814491303016</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -655,52 +655,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>15.4833968167048</v>
+        <v>16.12468433333333</v>
       </c>
       <c r="H4">
-        <v>15.4833968167048</v>
+        <v>48.374053</v>
       </c>
       <c r="I4">
-        <v>0.3702708826726077</v>
+        <v>0.2955490655206278</v>
       </c>
       <c r="J4">
-        <v>0.3702708826726077</v>
+        <v>0.2955490655206279</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>30.4604161887433</v>
+        <v>34.28929533333334</v>
       </c>
       <c r="N4">
-        <v>30.4604161887433</v>
+        <v>102.867886</v>
       </c>
       <c r="O4">
-        <v>0.3762547867852832</v>
+        <v>0.3991695798295478</v>
       </c>
       <c r="P4">
-        <v>0.3762547867852832</v>
+        <v>0.3991695798295478</v>
       </c>
       <c r="Q4">
-        <v>471.6307110522914</v>
+        <v>552.9040632624398</v>
       </c>
       <c r="R4">
-        <v>471.6307110522914</v>
+        <v>4976.136569361957</v>
       </c>
       <c r="S4">
-        <v>0.1393161920127806</v>
+        <v>0.1179741963028845</v>
       </c>
       <c r="T4">
-        <v>0.1393161920127806</v>
+        <v>0.1179741963028845</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -717,52 +717,52 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>15.4833968167048</v>
+        <v>16.12468433333333</v>
       </c>
       <c r="H5">
-        <v>15.4833968167048</v>
+        <v>48.374053</v>
       </c>
       <c r="I5">
-        <v>0.3702708826726077</v>
+        <v>0.2955490655206278</v>
       </c>
       <c r="J5">
-        <v>0.3702708826726077</v>
+        <v>0.2955490655206279</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>15.8263062121378</v>
+        <v>16.62387466666667</v>
       </c>
       <c r="N5">
-        <v>15.8263062121378</v>
+        <v>49.871624</v>
       </c>
       <c r="O5">
-        <v>0.1954905485384369</v>
+        <v>0.1935223515480544</v>
       </c>
       <c r="P5">
-        <v>0.1954905485384369</v>
+        <v>0.1935223515480545</v>
       </c>
       <c r="Q5">
-        <v>245.0449792252098</v>
+        <v>268.0547313968968</v>
       </c>
       <c r="R5">
-        <v>245.0449792252098</v>
+        <v>2412.492582572072</v>
       </c>
       <c r="S5">
-        <v>0.07238445796147928</v>
+        <v>0.05719535015738191</v>
       </c>
       <c r="T5">
-        <v>0.07238445796147928</v>
+        <v>0.05719535015738193</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -779,52 +779,52 @@
         <v>20</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>14.6238428604356</v>
+        <v>14.68975</v>
       </c>
       <c r="H6">
-        <v>14.6238428604356</v>
+        <v>44.06925</v>
       </c>
       <c r="I6">
-        <v>0.3497154576673431</v>
+        <v>0.2692481784748309</v>
       </c>
       <c r="J6">
-        <v>0.3497154576673431</v>
+        <v>0.2692481784748309</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>2.68601823730102</v>
+        <v>2.993142333333334</v>
       </c>
       <c r="N6">
-        <v>2.68601823730102</v>
+        <v>8.979427000000001</v>
       </c>
       <c r="O6">
-        <v>0.03317837855250831</v>
+        <v>0.03484385887642424</v>
       </c>
       <c r="P6">
-        <v>0.03317837855250831</v>
+        <v>0.03484385887642424</v>
       </c>
       <c r="Q6">
-        <v>39.27990862255434</v>
+        <v>43.96851259108333</v>
       </c>
       <c r="R6">
-        <v>39.27990862255434</v>
+        <v>395.71661331975</v>
       </c>
       <c r="S6">
-        <v>0.0116029918401508</v>
+        <v>0.009381645533511293</v>
       </c>
       <c r="T6">
-        <v>0.0116029918401508</v>
+        <v>0.009381645533511295</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -841,52 +841,52 @@
         <v>21</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>14.6238428604356</v>
+        <v>14.68975</v>
       </c>
       <c r="H7">
-        <v>14.6238428604356</v>
+        <v>44.06925</v>
       </c>
       <c r="I7">
-        <v>0.3497154576673431</v>
+        <v>0.2692481784748309</v>
       </c>
       <c r="J7">
-        <v>0.3497154576673431</v>
+        <v>0.2692481784748309</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>31.9841461804462</v>
+        <v>31.995262</v>
       </c>
       <c r="N7">
-        <v>31.9841461804462</v>
+        <v>95.985786</v>
       </c>
       <c r="O7">
-        <v>0.3950762861237717</v>
+        <v>0.3724642097459734</v>
       </c>
       <c r="P7">
-        <v>0.3950762861237717</v>
+        <v>0.3724642097459735</v>
       </c>
       <c r="Q7">
-        <v>467.7311277680467</v>
+        <v>470.0023999644999</v>
       </c>
       <c r="R7">
-        <v>467.7311277680467</v>
+        <v>4230.0215996805</v>
       </c>
       <c r="S7">
-        <v>0.138164284215289</v>
+        <v>0.1002853100211707</v>
       </c>
       <c r="T7">
-        <v>0.138164284215289</v>
+        <v>0.1002853100211707</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -903,52 +903,52 @@
         <v>22</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>14.6238428604356</v>
+        <v>14.68975</v>
       </c>
       <c r="H8">
-        <v>14.6238428604356</v>
+        <v>44.06925</v>
       </c>
       <c r="I8">
-        <v>0.3497154576673431</v>
+        <v>0.2692481784748309</v>
       </c>
       <c r="J8">
-        <v>0.3497154576673431</v>
+        <v>0.2692481784748309</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>30.4604161887433</v>
+        <v>34.28929533333334</v>
       </c>
       <c r="N8">
-        <v>30.4604161887433</v>
+        <v>102.867886</v>
       </c>
       <c r="O8">
-        <v>0.3762547867852832</v>
+        <v>0.3991695798295478</v>
       </c>
       <c r="P8">
-        <v>0.3762547867852832</v>
+        <v>0.3991695798295478</v>
       </c>
       <c r="Q8">
-        <v>445.4483398076507</v>
+        <v>503.7011761228333</v>
       </c>
       <c r="R8">
-        <v>445.4483398076507</v>
+        <v>4533.3105851055</v>
       </c>
       <c r="S8">
-        <v>0.1315821149601439</v>
+        <v>0.1074756822716693</v>
       </c>
       <c r="T8">
-        <v>0.1315821149601439</v>
+        <v>0.1074756822716693</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -965,52 +965,52 @@
         <v>23</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>14.6238428604356</v>
+        <v>14.68975</v>
       </c>
       <c r="H9">
-        <v>14.6238428604356</v>
+        <v>44.06925</v>
       </c>
       <c r="I9">
-        <v>0.3497154576673431</v>
+        <v>0.2692481784748309</v>
       </c>
       <c r="J9">
-        <v>0.3497154576673431</v>
+        <v>0.2692481784748309</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>15.8263062121378</v>
+        <v>16.62387466666667</v>
       </c>
       <c r="N9">
-        <v>15.8263062121378</v>
+        <v>49.871624</v>
       </c>
       <c r="O9">
-        <v>0.1954905485384369</v>
+        <v>0.1935223515480544</v>
       </c>
       <c r="P9">
-        <v>0.1954905485384369</v>
+        <v>0.1935223515480545</v>
       </c>
       <c r="Q9">
-        <v>231.4414151074389</v>
+        <v>244.2005628846666</v>
       </c>
       <c r="R9">
-        <v>231.4414151074389</v>
+        <v>2197.805065962</v>
       </c>
       <c r="S9">
-        <v>0.0683660666517594</v>
+        <v>0.05210554064847953</v>
       </c>
       <c r="T9">
-        <v>0.0683660666517594</v>
+        <v>0.05210554064847954</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1027,52 +1027,52 @@
         <v>20</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>1.80796346945351</v>
+        <v>1.967860666666667</v>
       </c>
       <c r="H10">
-        <v>1.80796346945351</v>
+        <v>5.903582</v>
       </c>
       <c r="I10">
-        <v>0.04323574714252217</v>
+        <v>0.03606888476606249</v>
       </c>
       <c r="J10">
-        <v>0.04323574714252217</v>
+        <v>0.03606888476606249</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>2.68601823730102</v>
+        <v>2.993142333333334</v>
       </c>
       <c r="N10">
-        <v>2.68601823730102</v>
+        <v>8.979427000000001</v>
       </c>
       <c r="O10">
-        <v>0.03317837855250831</v>
+        <v>0.03484385887642424</v>
       </c>
       <c r="P10">
-        <v>0.03317837855250831</v>
+        <v>0.03484385887642424</v>
       </c>
       <c r="Q10">
-        <v>4.856222851326153</v>
+        <v>5.890087067501556</v>
       </c>
       <c r="R10">
-        <v>4.856222851326153</v>
+        <v>53.01078360751401</v>
       </c>
       <c r="S10">
-        <v>0.00143449198569513</v>
+        <v>0.001256779130618689</v>
       </c>
       <c r="T10">
-        <v>0.00143449198569513</v>
+        <v>0.00125677913061869</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1089,52 +1089,52 @@
         <v>21</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>1.80796346945351</v>
+        <v>1.967860666666667</v>
       </c>
       <c r="H11">
-        <v>1.80796346945351</v>
+        <v>5.903582</v>
       </c>
       <c r="I11">
-        <v>0.04323574714252217</v>
+        <v>0.03606888476606249</v>
       </c>
       <c r="J11">
-        <v>0.04323574714252217</v>
+        <v>0.03606888476606249</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>31.9841461804462</v>
+        <v>31.995262</v>
       </c>
       <c r="N11">
-        <v>31.9841461804462</v>
+        <v>95.985786</v>
       </c>
       <c r="O11">
-        <v>0.3950762861237717</v>
+        <v>0.3724642097459734</v>
       </c>
       <c r="P11">
-        <v>0.3950762861237717</v>
+        <v>0.3724642097459735</v>
       </c>
       <c r="Q11">
-        <v>57.82616789590774</v>
+        <v>62.96221760949467</v>
       </c>
       <c r="R11">
-        <v>57.82616789590774</v>
+        <v>566.6599584854521</v>
       </c>
       <c r="S11">
-        <v>0.01708141840885414</v>
+        <v>0.01343436866081004</v>
       </c>
       <c r="T11">
-        <v>0.01708141840885414</v>
+        <v>0.01343436866081005</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1151,52 +1151,52 @@
         <v>22</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>1.80796346945351</v>
+        <v>1.967860666666667</v>
       </c>
       <c r="H12">
-        <v>1.80796346945351</v>
+        <v>5.903582</v>
       </c>
       <c r="I12">
-        <v>0.04323574714252217</v>
+        <v>0.03606888476606249</v>
       </c>
       <c r="J12">
-        <v>0.04323574714252217</v>
+        <v>0.03606888476606249</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>30.4604161887433</v>
+        <v>34.28929533333334</v>
       </c>
       <c r="N12">
-        <v>30.4604161887433</v>
+        <v>102.867886</v>
       </c>
       <c r="O12">
-        <v>0.3762547867852832</v>
+        <v>0.3991695798295478</v>
       </c>
       <c r="P12">
-        <v>0.3762547867852832</v>
+        <v>0.3991695798295478</v>
       </c>
       <c r="Q12">
-        <v>55.07131973359819</v>
+        <v>67.47655557418356</v>
       </c>
       <c r="R12">
-        <v>55.07131973359819</v>
+        <v>607.289000167652</v>
       </c>
       <c r="S12">
-        <v>0.0162676568226121</v>
+        <v>0.01439760157698954</v>
       </c>
       <c r="T12">
-        <v>0.0162676568226121</v>
+        <v>0.01439760157698954</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1213,52 +1213,52 @@
         <v>23</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>1.80796346945351</v>
+        <v>1.967860666666667</v>
       </c>
       <c r="H13">
-        <v>1.80796346945351</v>
+        <v>5.903582</v>
       </c>
       <c r="I13">
-        <v>0.04323574714252217</v>
+        <v>0.03606888476606249</v>
       </c>
       <c r="J13">
-        <v>0.04323574714252217</v>
+        <v>0.03606888476606249</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>15.8263062121378</v>
+        <v>16.62387466666667</v>
       </c>
       <c r="N13">
-        <v>15.8263062121378</v>
+        <v>49.871624</v>
       </c>
       <c r="O13">
-        <v>0.1954905485384369</v>
+        <v>0.1935223515480544</v>
       </c>
       <c r="P13">
-        <v>0.1954905485384369</v>
+        <v>0.1935223515480545</v>
       </c>
       <c r="Q13">
-        <v>28.6133834879303</v>
+        <v>32.71346908412978</v>
       </c>
       <c r="R13">
-        <v>28.6133834879303</v>
+        <v>294.421221757168</v>
       </c>
       <c r="S13">
-        <v>0.008452179925360815</v>
+        <v>0.00698013539764421</v>
       </c>
       <c r="T13">
-        <v>0.008452179925360815</v>
+        <v>0.006980135397644211</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1275,52 +1275,52 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>9.9012008464664</v>
+        <v>21.77610566666667</v>
       </c>
       <c r="H14">
-        <v>9.9012008464664</v>
+        <v>65.328317</v>
       </c>
       <c r="I14">
-        <v>0.236777912517527</v>
+        <v>0.3991338712384788</v>
       </c>
       <c r="J14">
-        <v>0.236777912517527</v>
+        <v>0.3991338712384788</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>2.68601823730102</v>
+        <v>2.993142333333334</v>
       </c>
       <c r="N14">
-        <v>2.68601823730102</v>
+        <v>8.979427000000001</v>
       </c>
       <c r="O14">
-        <v>0.03317837855250831</v>
+        <v>0.03484385887642424</v>
       </c>
       <c r="P14">
-        <v>0.03317837855250831</v>
+        <v>0.03484385887642424</v>
       </c>
       <c r="Q14">
-        <v>26.59480604478905</v>
+        <v>65.17898372603989</v>
       </c>
       <c r="R14">
-        <v>26.59480604478905</v>
+        <v>586.6108535343591</v>
       </c>
       <c r="S14">
-        <v>0.007855907214379206</v>
+        <v>0.01390736428223444</v>
       </c>
       <c r="T14">
-        <v>0.007855907214379206</v>
+        <v>0.01390736428223444</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1337,52 +1337,52 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>9.9012008464664</v>
+        <v>21.77610566666667</v>
       </c>
       <c r="H15">
-        <v>9.9012008464664</v>
+        <v>65.328317</v>
       </c>
       <c r="I15">
-        <v>0.236777912517527</v>
+        <v>0.3991338712384788</v>
       </c>
       <c r="J15">
-        <v>0.236777912517527</v>
+        <v>0.3991338712384788</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>31.9841461804462</v>
+        <v>31.995262</v>
       </c>
       <c r="N15">
-        <v>31.9841461804462</v>
+        <v>95.985786</v>
       </c>
       <c r="O15">
-        <v>0.3950762861237717</v>
+        <v>0.3724642097459734</v>
       </c>
       <c r="P15">
-        <v>0.3950762861237717</v>
+        <v>0.3724642097459735</v>
       </c>
       <c r="Q15">
-        <v>316.681455235339</v>
+        <v>696.7322061446847</v>
       </c>
       <c r="R15">
-        <v>316.681455235339</v>
+        <v>6270.589855302163</v>
       </c>
       <c r="S15">
-        <v>0.09354533831356387</v>
+        <v>0.1486630819336911</v>
       </c>
       <c r="T15">
-        <v>0.09354533831356387</v>
+        <v>0.1486630819336911</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1399,52 +1399,52 @@
         <v>22</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>9.9012008464664</v>
+        <v>21.77610566666667</v>
       </c>
       <c r="H16">
-        <v>9.9012008464664</v>
+        <v>65.328317</v>
       </c>
       <c r="I16">
-        <v>0.236777912517527</v>
+        <v>0.3991338712384788</v>
       </c>
       <c r="J16">
-        <v>0.236777912517527</v>
+        <v>0.3991338712384788</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>30.4604161887433</v>
+        <v>34.28929533333334</v>
       </c>
       <c r="N16">
-        <v>30.4604161887433</v>
+        <v>102.867886</v>
       </c>
       <c r="O16">
-        <v>0.3762547867852832</v>
+        <v>0.3991695798295478</v>
       </c>
       <c r="P16">
-        <v>0.3762547867852832</v>
+        <v>0.3991695798295478</v>
       </c>
       <c r="Q16">
-        <v>301.594698551704</v>
+        <v>746.6873184142069</v>
       </c>
       <c r="R16">
-        <v>301.594698551704</v>
+        <v>6720.185865727862</v>
       </c>
       <c r="S16">
-        <v>0.08908882298974656</v>
+        <v>0.1593220996780044</v>
       </c>
       <c r="T16">
-        <v>0.08908882298974656</v>
+        <v>0.1593220996780044</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1461,52 +1461,52 @@
         <v>23</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>9.9012008464664</v>
+        <v>21.77610566666667</v>
       </c>
       <c r="H17">
-        <v>9.9012008464664</v>
+        <v>65.328317</v>
       </c>
       <c r="I17">
-        <v>0.236777912517527</v>
+        <v>0.3991338712384788</v>
       </c>
       <c r="J17">
-        <v>0.236777912517527</v>
+        <v>0.3991338712384788</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>15.8263062121378</v>
+        <v>16.62387466666667</v>
       </c>
       <c r="N17">
-        <v>15.8263062121378</v>
+        <v>49.871624</v>
       </c>
       <c r="O17">
-        <v>0.1954905485384369</v>
+        <v>0.1935223515480544</v>
       </c>
       <c r="P17">
-        <v>0.1954905485384369</v>
+        <v>0.1935223515480545</v>
       </c>
       <c r="Q17">
-        <v>156.6994364640552</v>
+        <v>362.0032513307564</v>
       </c>
       <c r="R17">
-        <v>156.6994364640552</v>
+        <v>3258.029261976808</v>
       </c>
       <c r="S17">
-        <v>0.04628784399983737</v>
+        <v>0.07724132534454878</v>
       </c>
       <c r="T17">
-        <v>0.04628784399983737</v>
+        <v>0.07724132534454879</v>
       </c>
     </row>
   </sheetData>
